--- a/Code/Results/Cases/Case_0_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002696701321744</v>
+        <v>1.034663131525051</v>
       </c>
       <c r="D2">
-        <v>1.016342065002976</v>
+        <v>1.04221534779115</v>
       </c>
       <c r="E2">
-        <v>1.008738214012281</v>
+        <v>1.033813452028654</v>
       </c>
       <c r="F2">
-        <v>1.022573205875259</v>
+        <v>1.050712351946554</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04496404646944</v>
+        <v>1.034566327672007</v>
       </c>
       <c r="J2">
-        <v>1.024797052602465</v>
+        <v>1.039781144244546</v>
       </c>
       <c r="K2">
-        <v>1.027578328575186</v>
+        <v>1.044992664679298</v>
       </c>
       <c r="L2">
-        <v>1.020077139306833</v>
+        <v>1.036614721484526</v>
       </c>
       <c r="M2">
-        <v>1.033726768551995</v>
+        <v>1.053465867625742</v>
       </c>
       <c r="N2">
-        <v>1.026252381963027</v>
+        <v>1.041257752733938</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00714492278768</v>
+        <v>1.035611391369041</v>
       </c>
       <c r="D3">
-        <v>1.020091844305093</v>
+        <v>1.043064763084082</v>
       </c>
       <c r="E3">
-        <v>1.012288238901133</v>
+        <v>1.034619404088002</v>
       </c>
       <c r="F3">
-        <v>1.026715091849345</v>
+        <v>1.05165565324506</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045861285161233</v>
+        <v>1.034692445792059</v>
       </c>
       <c r="J3">
-        <v>1.027442687108214</v>
+        <v>1.0403726357229</v>
       </c>
       <c r="K3">
-        <v>1.030473941884487</v>
+        <v>1.045652764882827</v>
       </c>
       <c r="L3">
-        <v>1.022766267190275</v>
+        <v>1.037229740026358</v>
       </c>
       <c r="M3">
-        <v>1.037017188599461</v>
+        <v>1.054221333256409</v>
       </c>
       <c r="N3">
-        <v>1.028901773573231</v>
+        <v>1.041850084198036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009966124053356</v>
+        <v>1.036225446064468</v>
       </c>
       <c r="D4">
-        <v>1.022475420184212</v>
+        <v>1.043615124112124</v>
       </c>
       <c r="E4">
-        <v>1.014545786871446</v>
+        <v>1.035141682476418</v>
       </c>
       <c r="F4">
-        <v>1.029347688331359</v>
+        <v>1.0522668618481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046419193221667</v>
+        <v>1.034772717159129</v>
       </c>
       <c r="J4">
-        <v>1.029118285945785</v>
+        <v>1.040755223629329</v>
       </c>
       <c r="K4">
-        <v>1.032309948091657</v>
+        <v>1.046079982262542</v>
       </c>
       <c r="L4">
-        <v>1.024471770519959</v>
+        <v>1.037627819711004</v>
       </c>
       <c r="M4">
-        <v>1.039104359625836</v>
+        <v>1.054710373592719</v>
       </c>
       <c r="N4">
-        <v>1.030579751953345</v>
+        <v>1.042233215423176</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011138959941728</v>
+        <v>1.036483705468928</v>
       </c>
       <c r="D5">
-        <v>1.023467568020359</v>
+        <v>1.043846669868189</v>
       </c>
       <c r="E5">
-        <v>1.015485698303608</v>
+        <v>1.035361432086817</v>
       </c>
       <c r="F5">
-        <v>1.030443442101606</v>
+        <v>1.05252401112209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04664841151456</v>
+        <v>1.034806142987748</v>
       </c>
       <c r="J5">
-        <v>1.029814271275474</v>
+        <v>1.040916027455054</v>
       </c>
       <c r="K5">
-        <v>1.033073063361427</v>
+        <v>1.046259604489462</v>
       </c>
       <c r="L5">
-        <v>1.025180743029635</v>
+        <v>1.037795200421467</v>
       </c>
       <c r="M5">
-        <v>1.039972069627816</v>
+        <v>1.054916013630361</v>
       </c>
       <c r="N5">
-        <v>1.031276725662034</v>
+        <v>1.042394247608777</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011335123652865</v>
+        <v>1.036527074827453</v>
       </c>
       <c r="D6">
-        <v>1.023633582473424</v>
+        <v>1.043885557581338</v>
       </c>
       <c r="E6">
-        <v>1.015642985012348</v>
+        <v>1.035398339749213</v>
       </c>
       <c r="F6">
-        <v>1.030626790178705</v>
+        <v>1.052567199137815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046686588750411</v>
+        <v>1.03481173653606</v>
       </c>
       <c r="J6">
-        <v>1.029930642740699</v>
+        <v>1.040943024976461</v>
       </c>
       <c r="K6">
-        <v>1.033200688812035</v>
+        <v>1.046289764994242</v>
       </c>
       <c r="L6">
-        <v>1.025299319278704</v>
+        <v>1.037823305990124</v>
       </c>
       <c r="M6">
-        <v>1.040117199633677</v>
+        <v>1.054950544245444</v>
       </c>
       <c r="N6">
-        <v>1.031393262388086</v>
+        <v>1.042421283469762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009981846791168</v>
+        <v>1.036228896505142</v>
       </c>
       <c r="D7">
-        <v>1.022488715809137</v>
+        <v>1.043618217355971</v>
       </c>
       <c r="E7">
-        <v>1.014558381615194</v>
+        <v>1.035144618061117</v>
       </c>
       <c r="F7">
-        <v>1.029362372541755</v>
+        <v>1.052270297116302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046422276847101</v>
+        <v>1.034773165055733</v>
       </c>
       <c r="J7">
-        <v>1.029127618556097</v>
+        <v>1.040757372441171</v>
       </c>
       <c r="K7">
-        <v>1.032320178873384</v>
+        <v>1.046082382306194</v>
       </c>
       <c r="L7">
-        <v>1.024481275041721</v>
+        <v>1.037630056151554</v>
       </c>
       <c r="M7">
-        <v>1.039115991871928</v>
+        <v>1.054713121179971</v>
       </c>
       <c r="N7">
-        <v>1.030589097817035</v>
+        <v>1.042235367286577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004212111937622</v>
+        <v>1.034983503028142</v>
       </c>
       <c r="D8">
-        <v>1.017618385266858</v>
+        <v>1.042502259154133</v>
       </c>
       <c r="E8">
-        <v>1.009946341744459</v>
+        <v>1.034085666294974</v>
       </c>
       <c r="F8">
-        <v>1.023983039558414</v>
+        <v>1.051030972407069</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045272027274655</v>
+        <v>1.034609226081254</v>
       </c>
       <c r="J8">
-        <v>1.025698831362801</v>
+        <v>1.039981071303007</v>
       </c>
       <c r="K8">
-        <v>1.028564877811561</v>
+        <v>1.045215729651785</v>
       </c>
       <c r="L8">
-        <v>1.020993248190089</v>
+        <v>1.036822544053629</v>
       </c>
       <c r="M8">
-        <v>1.034847656714246</v>
+        <v>1.053721137872151</v>
       </c>
       <c r="N8">
-        <v>1.027155441352637</v>
+        <v>1.041457963711754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9935854171871301</v>
+        <v>1.032792584059919</v>
       </c>
       <c r="D9">
-        <v>1.008692732856032</v>
+        <v>1.040541469944149</v>
       </c>
       <c r="E9">
-        <v>1.001501812879842</v>
+        <v>1.032225644186658</v>
       </c>
       <c r="F9">
-        <v>1.014122458268507</v>
+        <v>1.048853540596575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04306679424791</v>
+        <v>1.034310140037684</v>
       </c>
       <c r="J9">
-        <v>1.019366742273964</v>
+        <v>1.038612051772678</v>
       </c>
       <c r="K9">
-        <v>1.02164633349634</v>
+        <v>1.04368930368865</v>
       </c>
       <c r="L9">
-        <v>1.014570571119962</v>
+        <v>1.035400583757839</v>
       </c>
       <c r="M9">
-        <v>1.026990489677817</v>
+        <v>1.051974750801814</v>
       </c>
       <c r="N9">
-        <v>1.020814359970992</v>
+        <v>1.040087000016663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9861585950752267</v>
+        <v>1.031334467729799</v>
       </c>
       <c r="D10">
-        <v>1.002487869657759</v>
+        <v>1.039238172546806</v>
       </c>
       <c r="E10">
-        <v>0.9956370595589062</v>
+        <v>1.030989737259377</v>
       </c>
       <c r="F10">
-        <v>1.00726577116852</v>
+        <v>1.047406317752893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041469644097865</v>
+        <v>1.034103919935111</v>
       </c>
       <c r="J10">
-        <v>1.014932348194951</v>
+        <v>1.037698707879896</v>
       </c>
       <c r="K10">
-        <v>1.016812349669107</v>
+        <v>1.042672241268603</v>
       </c>
       <c r="L10">
-        <v>1.010085537609493</v>
+        <v>1.034453332943965</v>
       </c>
       <c r="M10">
-        <v>1.021505067468224</v>
+        <v>1.050811651863568</v>
       </c>
       <c r="N10">
-        <v>1.016373668543755</v>
+        <v>1.039172359070791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9828534478480087</v>
+        <v>1.030703691617573</v>
       </c>
       <c r="D11">
-        <v>0.9997351006065439</v>
+        <v>1.038674771410601</v>
       </c>
       <c r="E11">
-        <v>0.9930366122320498</v>
+        <v>1.030455567562953</v>
       </c>
       <c r="F11">
-        <v>1.004223266454415</v>
+        <v>1.04678071500069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040746223511668</v>
+        <v>1.0340130110744</v>
       </c>
       <c r="J11">
-        <v>1.012957359521298</v>
+        <v>1.037303074873275</v>
       </c>
       <c r="K11">
-        <v>1.014662014271665</v>
+        <v>1.042231987383964</v>
       </c>
       <c r="L11">
-        <v>1.008091053559125</v>
+        <v>1.034043347688162</v>
       </c>
       <c r="M11">
-        <v>1.019065975229301</v>
+        <v>1.050308307426516</v>
       </c>
       <c r="N11">
-        <v>1.014395875159652</v>
+        <v>1.03877616421992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9816116152159315</v>
+        <v>1.030469484045189</v>
       </c>
       <c r="D12">
-        <v>0.9987021633224492</v>
+        <v>1.038465641006348</v>
       </c>
       <c r="E12">
-        <v>0.9920610551984592</v>
+        <v>1.030257302692979</v>
       </c>
       <c r="F12">
-        <v>1.003081516922428</v>
+        <v>1.046548498059354</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040472570802926</v>
+        <v>1.033979001461811</v>
       </c>
       <c r="J12">
-        <v>1.012215120762016</v>
+        <v>1.037156097740705</v>
       </c>
       <c r="K12">
-        <v>1.013854270145431</v>
+        <v>1.042068479731042</v>
       </c>
       <c r="L12">
-        <v>1.007341949941805</v>
+        <v>1.03389108909678</v>
       </c>
       <c r="M12">
-        <v>1.018149917103731</v>
+        <v>1.050121386924622</v>
       </c>
       <c r="N12">
-        <v>1.013652582336195</v>
+        <v>1.038628978362964</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9818786454642995</v>
+        <v>1.030519718242295</v>
       </c>
       <c r="D13">
-        <v>0.998924212820626</v>
+        <v>1.038510493746613</v>
       </c>
       <c r="E13">
-        <v>0.9922707594728375</v>
+        <v>1.030299824391499</v>
       </c>
       <c r="F13">
-        <v>1.003326962044573</v>
+        <v>1.046598302129172</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040531496531806</v>
+        <v>1.033986307582756</v>
       </c>
       <c r="J13">
-        <v>1.012374731142462</v>
+        <v>1.037187625788074</v>
       </c>
       <c r="K13">
-        <v>1.01402794898118</v>
+        <v>1.042103551653776</v>
       </c>
       <c r="L13">
-        <v>1.007503015624482</v>
+        <v>1.03392374778902</v>
       </c>
       <c r="M13">
-        <v>1.018346878378161</v>
+        <v>1.05016147999485</v>
       </c>
       <c r="N13">
-        <v>1.013812419381689</v>
+        <v>1.038660551183777</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827510907674761</v>
+        <v>1.03068433008965</v>
       </c>
       <c r="D14">
-        <v>0.9996499336964015</v>
+        <v>1.038657481724347</v>
       </c>
       <c r="E14">
-        <v>0.9929561717930115</v>
+        <v>1.030439175868419</v>
       </c>
       <c r="F14">
-        <v>1.00412912979387</v>
+        <v>1.04676151660851</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040723705061518</v>
+        <v>1.034010204763328</v>
       </c>
       <c r="J14">
-        <v>1.012896184477221</v>
+        <v>1.037290926128913</v>
       </c>
       <c r="K14">
-        <v>1.014595432308188</v>
+        <v>1.042218471330383</v>
       </c>
       <c r="L14">
-        <v>1.008029303312804</v>
+        <v>1.034030761364391</v>
       </c>
       <c r="M14">
-        <v>1.018990461876504</v>
+        <v>1.050292855614285</v>
       </c>
       <c r="N14">
-        <v>1.014334613239995</v>
+        <v>1.038763998222948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9832867346041254</v>
+        <v>1.030785764936484</v>
       </c>
       <c r="D15">
-        <v>1.000095675325948</v>
+        <v>1.038748064707411</v>
       </c>
       <c r="E15">
-        <v>0.9933771854673643</v>
+        <v>1.030525054769194</v>
       </c>
       <c r="F15">
-        <v>1.004621812928284</v>
+        <v>1.04686209964916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04084147130114</v>
+        <v>1.034024896550774</v>
       </c>
       <c r="J15">
-        <v>1.013216311876993</v>
+        <v>1.037354570069388</v>
       </c>
       <c r="K15">
-        <v>1.014943870003528</v>
+        <v>1.042289280115598</v>
       </c>
       <c r="L15">
-        <v>1.008352459572751</v>
+        <v>1.034096699726699</v>
       </c>
       <c r="M15">
-        <v>1.019385645704345</v>
+        <v>1.050373806340245</v>
       </c>
       <c r="N15">
-        <v>1.014655195257394</v>
+        <v>1.038827732545119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9863760036973001</v>
+        <v>1.031376342939419</v>
       </c>
       <c r="D16">
-        <v>1.0026691274805</v>
+        <v>1.03927558344467</v>
       </c>
       <c r="E16">
-        <v>0.995808318262398</v>
+        <v>1.031025209237919</v>
       </c>
       <c r="F16">
-        <v>1.007466094420227</v>
+        <v>1.047447859277671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041516970987981</v>
+        <v>1.034109919290261</v>
       </c>
       <c r="J16">
-        <v>1.015062232429585</v>
+        <v>1.037724961682231</v>
       </c>
       <c r="K16">
-        <v>1.016953820073365</v>
+        <v>1.042701462528829</v>
       </c>
       <c r="L16">
-        <v>1.010216767860537</v>
+        <v>1.034480546210123</v>
       </c>
       <c r="M16">
-        <v>1.021665556506182</v>
+        <v>1.050845063285118</v>
       </c>
       <c r="N16">
-        <v>1.016503737228901</v>
+        <v>1.039198650156536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882894101180871</v>
+        <v>1.031746957646924</v>
       </c>
       <c r="D17">
-        <v>1.004265355348533</v>
+        <v>1.039606733357253</v>
       </c>
       <c r="E17">
-        <v>0.9973166543622849</v>
+        <v>1.031339207919289</v>
       </c>
       <c r="F17">
-        <v>1.009230155435875</v>
+        <v>1.047815574054535</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041932060395896</v>
+        <v>1.034162819995601</v>
       </c>
       <c r="J17">
-        <v>1.016205168233055</v>
+        <v>1.037957259334395</v>
       </c>
       <c r="K17">
-        <v>1.018199008486095</v>
+        <v>1.04296005214016</v>
       </c>
       <c r="L17">
-        <v>1.011371896498717</v>
+        <v>1.034721372063492</v>
       </c>
       <c r="M17">
-        <v>1.023078259223765</v>
+        <v>1.051140747489123</v>
       </c>
       <c r="N17">
-        <v>1.017648296132308</v>
+        <v>1.039431277698012</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9893969056659002</v>
+        <v>1.031963188559301</v>
       </c>
       <c r="D18">
-        <v>1.005190074531867</v>
+        <v>1.039799977644641</v>
       </c>
       <c r="E18">
-        <v>0.9981905921979252</v>
+        <v>1.031522453095201</v>
       </c>
       <c r="F18">
-        <v>1.010252050706422</v>
+        <v>1.048030157493589</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0421711137558</v>
+        <v>1.034193520301934</v>
       </c>
       <c r="J18">
-        <v>1.016866557676095</v>
+        <v>1.038092740175603</v>
       </c>
       <c r="K18">
-        <v>1.018919817893954</v>
+        <v>1.043110896603412</v>
       </c>
       <c r="L18">
-        <v>1.01204063164127</v>
+        <v>1.034861859063616</v>
       </c>
       <c r="M18">
-        <v>1.02389613616879</v>
+        <v>1.051313242507888</v>
       </c>
       <c r="N18">
-        <v>1.01831062482422</v>
+        <v>1.039566950937554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9897731023967609</v>
+        <v>1.032036927458098</v>
       </c>
       <c r="D19">
-        <v>1.005504320755743</v>
+        <v>1.039865884201888</v>
       </c>
       <c r="E19">
-        <v>0.9984876042296963</v>
+        <v>1.031584951046121</v>
       </c>
       <c r="F19">
-        <v>1.010599311586851</v>
+        <v>1.048103342097363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042252110149947</v>
+        <v>1.034203961874807</v>
       </c>
       <c r="J19">
-        <v>1.017091192857105</v>
+        <v>1.038138933160746</v>
       </c>
       <c r="K19">
-        <v>1.019164676784389</v>
+        <v>1.043162332927238</v>
       </c>
       <c r="L19">
-        <v>1.012267810851741</v>
+        <v>1.034909764411666</v>
       </c>
       <c r="M19">
-        <v>1.024173985466776</v>
+        <v>1.051372063466801</v>
       </c>
       <c r="N19">
-        <v>1.018535579012952</v>
+        <v>1.039613209522034</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9880850105148771</v>
+        <v>1.03170718822917</v>
       </c>
       <c r="D20">
-        <v>1.004094753941385</v>
+        <v>1.039571194771579</v>
       </c>
       <c r="E20">
-        <v>0.9971554325073311</v>
+        <v>1.031305508990204</v>
       </c>
       <c r="F20">
-        <v>1.009041621864692</v>
+        <v>1.047776111216831</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041887842979483</v>
+        <v>1.034157160360008</v>
       </c>
       <c r="J20">
-        <v>1.01608308947578</v>
+        <v>1.037932337482215</v>
       </c>
       <c r="K20">
-        <v>1.018065982156027</v>
+        <v>1.042932306516082</v>
       </c>
       <c r="L20">
-        <v>1.011248485301989</v>
+        <v>1.034695531925907</v>
       </c>
       <c r="M20">
-        <v>1.022927326841536</v>
+        <v>1.051109020526931</v>
       </c>
       <c r="N20">
-        <v>1.017526044009195</v>
+        <v>1.039406320453942</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9824945742844221</v>
+        <v>1.030635853490457</v>
       </c>
       <c r="D21">
-        <v>0.9994365194043867</v>
+        <v>1.038614193501487</v>
       </c>
       <c r="E21">
-        <v>0.9927546048956704</v>
+        <v>1.030398136192617</v>
       </c>
       <c r="F21">
-        <v>1.003893237247153</v>
+        <v>1.046713449590669</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040667242188297</v>
+        <v>1.034003174316017</v>
       </c>
       <c r="J21">
-        <v>1.012742871296094</v>
+        <v>1.037260507336619</v>
       </c>
       <c r="K21">
-        <v>1.01442857496785</v>
+        <v>1.042184629727249</v>
       </c>
       <c r="L21">
-        <v>1.007874556043924</v>
+        <v>1.033999247747112</v>
       </c>
       <c r="M21">
-        <v>1.018801224551918</v>
+        <v>1.050254167543602</v>
       </c>
       <c r="N21">
-        <v>1.014181082336566</v>
+        <v>1.038733536232481</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9788973510884029</v>
+        <v>1.029962788401241</v>
       </c>
       <c r="D22">
-        <v>0.9964470398316311</v>
+        <v>1.038013310267042</v>
       </c>
       <c r="E22">
-        <v>0.9899316257647691</v>
+        <v>1.029828500771716</v>
       </c>
       <c r="F22">
-        <v>1.000588651100653</v>
+        <v>1.046046237147549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039871122417441</v>
+        <v>1.033904957208665</v>
       </c>
       <c r="J22">
-        <v>1.010592538590638</v>
+        <v>1.036837977624305</v>
       </c>
       <c r="K22">
-        <v>1.012089211675519</v>
+        <v>1.041714664876495</v>
       </c>
       <c r="L22">
-        <v>1.005705213014483</v>
+        <v>1.033561629853286</v>
       </c>
       <c r="M22">
-        <v>1.016148455710393</v>
+        <v>1.049716942904658</v>
       </c>
       <c r="N22">
-        <v>1.01202769591202</v>
+        <v>1.03831040647951</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9808123683821233</v>
+        <v>1.03031954280687</v>
       </c>
       <c r="D23">
-        <v>0.9980377513860592</v>
+        <v>1.038331771522642</v>
       </c>
       <c r="E23">
-        <v>0.9914336158335962</v>
+        <v>1.030130392750985</v>
       </c>
       <c r="F23">
-        <v>1.002347086689366</v>
+        <v>1.046399850937642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040295934644864</v>
+        <v>1.033957156489127</v>
       </c>
       <c r="J23">
-        <v>1.011737369124757</v>
+        <v>1.037061979992598</v>
       </c>
       <c r="K23">
-        <v>1.013334465891466</v>
+        <v>1.041963789526242</v>
       </c>
       <c r="L23">
-        <v>1.006859910130867</v>
+        <v>1.033793603518763</v>
       </c>
       <c r="M23">
-        <v>1.017560453176476</v>
+        <v>1.050001711242904</v>
       </c>
       <c r="N23">
-        <v>1.013174152236813</v>
+        <v>1.038534726956859</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9881773963026766</v>
+        <v>1.031725158139201</v>
       </c>
       <c r="D24">
-        <v>1.004171860908984</v>
+        <v>1.039587252850301</v>
       </c>
       <c r="E24">
-        <v>0.9972282997650893</v>
+        <v>1.031320735792135</v>
       </c>
       <c r="F24">
-        <v>1.009126833819818</v>
+        <v>1.047793942460637</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041907832375358</v>
+        <v>1.034159718187097</v>
       </c>
       <c r="J24">
-        <v>1.016138267855112</v>
+        <v>1.037943598639196</v>
       </c>
       <c r="K24">
-        <v>1.01812610795733</v>
+        <v>1.042944843527635</v>
       </c>
       <c r="L24">
-        <v>1.011304265031643</v>
+        <v>1.034707207918283</v>
       </c>
       <c r="M24">
-        <v>1.022995545593235</v>
+        <v>1.051123356490843</v>
       </c>
       <c r="N24">
-        <v>1.017581300748155</v>
+        <v>1.039417597603058</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9963904452115372</v>
+        <v>1.033358553553026</v>
       </c>
       <c r="D25">
-        <v>1.011043264746603</v>
+        <v>1.041047700371609</v>
       </c>
       <c r="E25">
-        <v>1.003724696537633</v>
+        <v>1.032705786533502</v>
       </c>
       <c r="F25">
-        <v>1.016719491394925</v>
+        <v>1.0494156898373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043658736155884</v>
+        <v>1.034388666996105</v>
       </c>
       <c r="J25">
-        <v>1.021039898895341</v>
+        <v>1.038966097632703</v>
       </c>
       <c r="K25">
-        <v>1.023472533379978</v>
+        <v>1.044083828439635</v>
       </c>
       <c r="L25">
-        <v>1.016265465256273</v>
+        <v>1.035768071907712</v>
       </c>
       <c r="M25">
-        <v>1.0290636869682</v>
+        <v>1.052426034824406</v>
       </c>
       <c r="N25">
-        <v>1.022489892666686</v>
+        <v>1.040441548662419</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034663131525051</v>
+        <v>1.002696701321744</v>
       </c>
       <c r="D2">
-        <v>1.04221534779115</v>
+        <v>1.016342065002976</v>
       </c>
       <c r="E2">
-        <v>1.033813452028654</v>
+        <v>1.008738214012281</v>
       </c>
       <c r="F2">
-        <v>1.050712351946554</v>
+        <v>1.022573205875259</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034566327672007</v>
+        <v>1.04496404646944</v>
       </c>
       <c r="J2">
-        <v>1.039781144244546</v>
+        <v>1.024797052602465</v>
       </c>
       <c r="K2">
-        <v>1.044992664679298</v>
+        <v>1.027578328575186</v>
       </c>
       <c r="L2">
-        <v>1.036614721484526</v>
+        <v>1.020077139306833</v>
       </c>
       <c r="M2">
-        <v>1.053465867625742</v>
+        <v>1.033726768551995</v>
       </c>
       <c r="N2">
-        <v>1.041257752733938</v>
+        <v>1.026252381963026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035611391369041</v>
+        <v>1.007144922787679</v>
       </c>
       <c r="D3">
-        <v>1.043064763084082</v>
+        <v>1.020091844305092</v>
       </c>
       <c r="E3">
-        <v>1.034619404088002</v>
+        <v>1.012288238901133</v>
       </c>
       <c r="F3">
-        <v>1.05165565324506</v>
+        <v>1.026715091849344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034692445792059</v>
+        <v>1.045861285161233</v>
       </c>
       <c r="J3">
-        <v>1.0403726357229</v>
+        <v>1.027442687108213</v>
       </c>
       <c r="K3">
-        <v>1.045652764882827</v>
+        <v>1.030473941884486</v>
       </c>
       <c r="L3">
-        <v>1.037229740026358</v>
+        <v>1.022766267190275</v>
       </c>
       <c r="M3">
-        <v>1.054221333256409</v>
+        <v>1.03701718859946</v>
       </c>
       <c r="N3">
-        <v>1.041850084198036</v>
+        <v>1.02890177357323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036225446064468</v>
+        <v>1.009966124053355</v>
       </c>
       <c r="D4">
-        <v>1.043615124112124</v>
+        <v>1.022475420184211</v>
       </c>
       <c r="E4">
-        <v>1.035141682476418</v>
+        <v>1.014545786871445</v>
       </c>
       <c r="F4">
-        <v>1.0522668618481</v>
+        <v>1.029347688331358</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034772717159129</v>
+        <v>1.046419193221667</v>
       </c>
       <c r="J4">
-        <v>1.040755223629329</v>
+        <v>1.029118285945784</v>
       </c>
       <c r="K4">
-        <v>1.046079982262542</v>
+        <v>1.032309948091656</v>
       </c>
       <c r="L4">
-        <v>1.037627819711004</v>
+        <v>1.024471770519958</v>
       </c>
       <c r="M4">
-        <v>1.054710373592719</v>
+        <v>1.039104359625835</v>
       </c>
       <c r="N4">
-        <v>1.042233215423176</v>
+        <v>1.030579751953344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036483705468928</v>
+        <v>1.011138959941728</v>
       </c>
       <c r="D5">
-        <v>1.043846669868189</v>
+        <v>1.023467568020359</v>
       </c>
       <c r="E5">
-        <v>1.035361432086817</v>
+        <v>1.015485698303608</v>
       </c>
       <c r="F5">
-        <v>1.05252401112209</v>
+        <v>1.030443442101606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034806142987748</v>
+        <v>1.04664841151456</v>
       </c>
       <c r="J5">
-        <v>1.040916027455054</v>
+        <v>1.029814271275475</v>
       </c>
       <c r="K5">
-        <v>1.046259604489462</v>
+        <v>1.033073063361427</v>
       </c>
       <c r="L5">
-        <v>1.037795200421467</v>
+        <v>1.025180743029635</v>
       </c>
       <c r="M5">
-        <v>1.054916013630361</v>
+        <v>1.039972069627817</v>
       </c>
       <c r="N5">
-        <v>1.042394247608777</v>
+        <v>1.031276725662034</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036527074827453</v>
+        <v>1.011335123652865</v>
       </c>
       <c r="D6">
-        <v>1.043885557581338</v>
+        <v>1.023633582473424</v>
       </c>
       <c r="E6">
-        <v>1.035398339749213</v>
+        <v>1.015642985012348</v>
       </c>
       <c r="F6">
-        <v>1.052567199137815</v>
+        <v>1.030626790178705</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03481173653606</v>
+        <v>1.046686588750411</v>
       </c>
       <c r="J6">
-        <v>1.040943024976461</v>
+        <v>1.029930642740698</v>
       </c>
       <c r="K6">
-        <v>1.046289764994242</v>
+        <v>1.033200688812035</v>
       </c>
       <c r="L6">
-        <v>1.037823305990124</v>
+        <v>1.025299319278704</v>
       </c>
       <c r="M6">
-        <v>1.054950544245444</v>
+        <v>1.040117199633676</v>
       </c>
       <c r="N6">
-        <v>1.042421283469762</v>
+        <v>1.031393262388086</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036228896505142</v>
+        <v>1.009981846791168</v>
       </c>
       <c r="D7">
-        <v>1.043618217355971</v>
+        <v>1.022488715809136</v>
       </c>
       <c r="E7">
-        <v>1.035144618061117</v>
+        <v>1.014558381615193</v>
       </c>
       <c r="F7">
-        <v>1.052270297116302</v>
+        <v>1.029362372541754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034773165055733</v>
+        <v>1.046422276847101</v>
       </c>
       <c r="J7">
-        <v>1.040757372441171</v>
+        <v>1.029127618556096</v>
       </c>
       <c r="K7">
-        <v>1.046082382306194</v>
+        <v>1.032320178873384</v>
       </c>
       <c r="L7">
-        <v>1.037630056151554</v>
+        <v>1.024481275041721</v>
       </c>
       <c r="M7">
-        <v>1.054713121179971</v>
+        <v>1.039115991871927</v>
       </c>
       <c r="N7">
-        <v>1.042235367286577</v>
+        <v>1.030589097817034</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034983503028142</v>
+        <v>1.004212111937622</v>
       </c>
       <c r="D8">
-        <v>1.042502259154133</v>
+        <v>1.017618385266859</v>
       </c>
       <c r="E8">
-        <v>1.034085666294974</v>
+        <v>1.009946341744459</v>
       </c>
       <c r="F8">
-        <v>1.051030972407069</v>
+        <v>1.023983039558414</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034609226081254</v>
+        <v>1.045272027274655</v>
       </c>
       <c r="J8">
-        <v>1.039981071303007</v>
+        <v>1.025698831362802</v>
       </c>
       <c r="K8">
-        <v>1.045215729651785</v>
+        <v>1.028564877811561</v>
       </c>
       <c r="L8">
-        <v>1.036822544053629</v>
+        <v>1.020993248190089</v>
       </c>
       <c r="M8">
-        <v>1.053721137872151</v>
+        <v>1.034847656714247</v>
       </c>
       <c r="N8">
-        <v>1.041457963711754</v>
+        <v>1.027155441352638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032792584059919</v>
+        <v>0.9935854171871303</v>
       </c>
       <c r="D9">
-        <v>1.040541469944149</v>
+        <v>1.008692732856032</v>
       </c>
       <c r="E9">
-        <v>1.032225644186658</v>
+        <v>1.001501812879842</v>
       </c>
       <c r="F9">
-        <v>1.048853540596575</v>
+        <v>1.014122458268507</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034310140037684</v>
+        <v>1.04306679424791</v>
       </c>
       <c r="J9">
-        <v>1.038612051772678</v>
+        <v>1.019366742273964</v>
       </c>
       <c r="K9">
-        <v>1.04368930368865</v>
+        <v>1.02164633349634</v>
       </c>
       <c r="L9">
-        <v>1.035400583757839</v>
+        <v>1.014570571119963</v>
       </c>
       <c r="M9">
-        <v>1.051974750801814</v>
+        <v>1.026990489677817</v>
       </c>
       <c r="N9">
-        <v>1.040087000016663</v>
+        <v>1.020814359970993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031334467729799</v>
+        <v>0.9861585950752267</v>
       </c>
       <c r="D10">
-        <v>1.039238172546806</v>
+        <v>1.002487869657759</v>
       </c>
       <c r="E10">
-        <v>1.030989737259377</v>
+        <v>0.9956370595589058</v>
       </c>
       <c r="F10">
-        <v>1.047406317752893</v>
+        <v>1.00726577116852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034103919935111</v>
+        <v>1.041469644097865</v>
       </c>
       <c r="J10">
-        <v>1.037698707879896</v>
+        <v>1.014932348194951</v>
       </c>
       <c r="K10">
-        <v>1.042672241268603</v>
+        <v>1.016812349669107</v>
       </c>
       <c r="L10">
-        <v>1.034453332943965</v>
+        <v>1.010085537609493</v>
       </c>
       <c r="M10">
-        <v>1.050811651863568</v>
+        <v>1.021505067468224</v>
       </c>
       <c r="N10">
-        <v>1.039172359070791</v>
+        <v>1.016373668543755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030703691617573</v>
+        <v>0.9828534478480085</v>
       </c>
       <c r="D11">
-        <v>1.038674771410601</v>
+        <v>0.9997351006065439</v>
       </c>
       <c r="E11">
-        <v>1.030455567562953</v>
+        <v>0.9930366122320493</v>
       </c>
       <c r="F11">
-        <v>1.04678071500069</v>
+        <v>1.004223266454415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0340130110744</v>
+        <v>1.040746223511668</v>
       </c>
       <c r="J11">
-        <v>1.037303074873275</v>
+        <v>1.012957359521298</v>
       </c>
       <c r="K11">
-        <v>1.042231987383964</v>
+        <v>1.014662014271665</v>
       </c>
       <c r="L11">
-        <v>1.034043347688162</v>
+        <v>1.008091053559124</v>
       </c>
       <c r="M11">
-        <v>1.050308307426516</v>
+        <v>1.019065975229301</v>
       </c>
       <c r="N11">
-        <v>1.03877616421992</v>
+        <v>1.014395875159652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030469484045189</v>
+        <v>0.9816116152159315</v>
       </c>
       <c r="D12">
-        <v>1.038465641006348</v>
+        <v>0.9987021633224494</v>
       </c>
       <c r="E12">
-        <v>1.030257302692979</v>
+        <v>0.9920610551984593</v>
       </c>
       <c r="F12">
-        <v>1.046548498059354</v>
+        <v>1.003081516922429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033979001461811</v>
+        <v>1.040472570802927</v>
       </c>
       <c r="J12">
-        <v>1.037156097740705</v>
+        <v>1.012215120762016</v>
       </c>
       <c r="K12">
-        <v>1.042068479731042</v>
+        <v>1.013854270145431</v>
       </c>
       <c r="L12">
-        <v>1.03389108909678</v>
+        <v>1.007341949941805</v>
       </c>
       <c r="M12">
-        <v>1.050121386924622</v>
+        <v>1.018149917103731</v>
       </c>
       <c r="N12">
-        <v>1.038628978362964</v>
+        <v>1.013652582336195</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030519718242295</v>
+        <v>0.9818786454642997</v>
       </c>
       <c r="D13">
-        <v>1.038510493746613</v>
+        <v>0.9989242128206263</v>
       </c>
       <c r="E13">
-        <v>1.030299824391499</v>
+        <v>0.9922707594728374</v>
       </c>
       <c r="F13">
-        <v>1.046598302129172</v>
+        <v>1.003326962044573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033986307582756</v>
+        <v>1.040531496531806</v>
       </c>
       <c r="J13">
-        <v>1.037187625788074</v>
+        <v>1.012374731142462</v>
       </c>
       <c r="K13">
-        <v>1.042103551653776</v>
+        <v>1.01402794898118</v>
       </c>
       <c r="L13">
-        <v>1.03392374778902</v>
+        <v>1.007503015624482</v>
       </c>
       <c r="M13">
-        <v>1.05016147999485</v>
+        <v>1.018346878378161</v>
       </c>
       <c r="N13">
-        <v>1.038660551183777</v>
+        <v>1.013812419381689</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03068433008965</v>
+        <v>0.9827510907674761</v>
       </c>
       <c r="D14">
-        <v>1.038657481724347</v>
+        <v>0.9996499336964013</v>
       </c>
       <c r="E14">
-        <v>1.030439175868419</v>
+        <v>0.9929561717930111</v>
       </c>
       <c r="F14">
-        <v>1.04676151660851</v>
+        <v>1.00412912979387</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034010204763328</v>
+        <v>1.040723705061518</v>
       </c>
       <c r="J14">
-        <v>1.037290926128913</v>
+        <v>1.012896184477221</v>
       </c>
       <c r="K14">
-        <v>1.042218471330383</v>
+        <v>1.014595432308187</v>
       </c>
       <c r="L14">
-        <v>1.034030761364391</v>
+        <v>1.008029303312804</v>
       </c>
       <c r="M14">
-        <v>1.050292855614285</v>
+        <v>1.018990461876504</v>
       </c>
       <c r="N14">
-        <v>1.038763998222948</v>
+        <v>1.014334613239995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030785764936484</v>
+        <v>0.9832867346041247</v>
       </c>
       <c r="D15">
-        <v>1.038748064707411</v>
+        <v>1.000095675325947</v>
       </c>
       <c r="E15">
-        <v>1.030525054769194</v>
+        <v>0.9933771854673633</v>
       </c>
       <c r="F15">
-        <v>1.04686209964916</v>
+        <v>1.004621812928283</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034024896550774</v>
+        <v>1.04084147130114</v>
       </c>
       <c r="J15">
-        <v>1.037354570069388</v>
+        <v>1.013216311876993</v>
       </c>
       <c r="K15">
-        <v>1.042289280115598</v>
+        <v>1.014943870003527</v>
       </c>
       <c r="L15">
-        <v>1.034096699726699</v>
+        <v>1.00835245957275</v>
       </c>
       <c r="M15">
-        <v>1.050373806340245</v>
+        <v>1.019385645704344</v>
       </c>
       <c r="N15">
-        <v>1.038827732545119</v>
+        <v>1.014655195257393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031376342939419</v>
+        <v>0.9863760036972997</v>
       </c>
       <c r="D16">
-        <v>1.03927558344467</v>
+        <v>1.0026691274805</v>
       </c>
       <c r="E16">
-        <v>1.031025209237919</v>
+        <v>0.9958083182623979</v>
       </c>
       <c r="F16">
-        <v>1.047447859277671</v>
+        <v>1.007466094420226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034109919290261</v>
+        <v>1.041516970987981</v>
       </c>
       <c r="J16">
-        <v>1.037724961682231</v>
+        <v>1.015062232429585</v>
       </c>
       <c r="K16">
-        <v>1.042701462528829</v>
+        <v>1.016953820073365</v>
       </c>
       <c r="L16">
-        <v>1.034480546210123</v>
+        <v>1.010216767860536</v>
       </c>
       <c r="M16">
-        <v>1.050845063285118</v>
+        <v>1.021665556506182</v>
       </c>
       <c r="N16">
-        <v>1.039198650156536</v>
+        <v>1.0165037372289</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031746957646924</v>
+        <v>0.9882894101180871</v>
       </c>
       <c r="D17">
-        <v>1.039606733357253</v>
+        <v>1.004265355348533</v>
       </c>
       <c r="E17">
-        <v>1.031339207919289</v>
+        <v>0.9973166543622848</v>
       </c>
       <c r="F17">
-        <v>1.047815574054535</v>
+        <v>1.009230155435876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034162819995601</v>
+        <v>1.041932060395896</v>
       </c>
       <c r="J17">
-        <v>1.037957259334395</v>
+        <v>1.016205168233055</v>
       </c>
       <c r="K17">
-        <v>1.04296005214016</v>
+        <v>1.018199008486095</v>
       </c>
       <c r="L17">
-        <v>1.034721372063492</v>
+        <v>1.011371896498716</v>
       </c>
       <c r="M17">
-        <v>1.051140747489123</v>
+        <v>1.023078259223765</v>
       </c>
       <c r="N17">
-        <v>1.039431277698012</v>
+        <v>1.017648296132308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031963188559301</v>
+        <v>0.9893969056659006</v>
       </c>
       <c r="D18">
-        <v>1.039799977644641</v>
+        <v>1.005190074531867</v>
       </c>
       <c r="E18">
-        <v>1.031522453095201</v>
+        <v>0.9981905921979258</v>
       </c>
       <c r="F18">
-        <v>1.048030157493589</v>
+        <v>1.010252050706423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034193520301934</v>
+        <v>1.0421711137558</v>
       </c>
       <c r="J18">
-        <v>1.038092740175603</v>
+        <v>1.016866557676095</v>
       </c>
       <c r="K18">
-        <v>1.043110896603412</v>
+        <v>1.018919817893955</v>
       </c>
       <c r="L18">
-        <v>1.034861859063616</v>
+        <v>1.01204063164127</v>
       </c>
       <c r="M18">
-        <v>1.051313242507888</v>
+        <v>1.023896136168791</v>
       </c>
       <c r="N18">
-        <v>1.039566950937554</v>
+        <v>1.01831062482422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032036927458098</v>
+        <v>0.9897731023967602</v>
       </c>
       <c r="D19">
-        <v>1.039865884201888</v>
+        <v>1.005504320755743</v>
       </c>
       <c r="E19">
-        <v>1.031584951046121</v>
+        <v>0.9984876042296961</v>
       </c>
       <c r="F19">
-        <v>1.048103342097363</v>
+        <v>1.010599311586851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034203961874807</v>
+        <v>1.042252110149947</v>
       </c>
       <c r="J19">
-        <v>1.038138933160746</v>
+        <v>1.017091192857104</v>
       </c>
       <c r="K19">
-        <v>1.043162332927238</v>
+        <v>1.019164676784389</v>
       </c>
       <c r="L19">
-        <v>1.034909764411666</v>
+        <v>1.01226781085174</v>
       </c>
       <c r="M19">
-        <v>1.051372063466801</v>
+        <v>1.024173985466776</v>
       </c>
       <c r="N19">
-        <v>1.039613209522034</v>
+        <v>1.018535579012952</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03170718822917</v>
+        <v>0.9880850105148775</v>
       </c>
       <c r="D20">
-        <v>1.039571194771579</v>
+        <v>1.004094753941385</v>
       </c>
       <c r="E20">
-        <v>1.031305508990204</v>
+        <v>0.9971554325073311</v>
       </c>
       <c r="F20">
-        <v>1.047776111216831</v>
+        <v>1.009041621864692</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034157160360008</v>
+        <v>1.041887842979483</v>
       </c>
       <c r="J20">
-        <v>1.037932337482215</v>
+        <v>1.01608308947578</v>
       </c>
       <c r="K20">
-        <v>1.042932306516082</v>
+        <v>1.018065982156027</v>
       </c>
       <c r="L20">
-        <v>1.034695531925907</v>
+        <v>1.01124848530199</v>
       </c>
       <c r="M20">
-        <v>1.051109020526931</v>
+        <v>1.022927326841536</v>
       </c>
       <c r="N20">
-        <v>1.039406320453942</v>
+        <v>1.017526044009196</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030635853490457</v>
+        <v>0.9824945742844221</v>
       </c>
       <c r="D21">
-        <v>1.038614193501487</v>
+        <v>0.9994365194043864</v>
       </c>
       <c r="E21">
-        <v>1.030398136192617</v>
+        <v>0.9927546048956705</v>
       </c>
       <c r="F21">
-        <v>1.046713449590669</v>
+        <v>1.003893237247152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034003174316017</v>
+        <v>1.040667242188297</v>
       </c>
       <c r="J21">
-        <v>1.037260507336619</v>
+        <v>1.012742871296094</v>
       </c>
       <c r="K21">
-        <v>1.042184629727249</v>
+        <v>1.01442857496785</v>
       </c>
       <c r="L21">
-        <v>1.033999247747112</v>
+        <v>1.007874556043924</v>
       </c>
       <c r="M21">
-        <v>1.050254167543602</v>
+        <v>1.018801224551918</v>
       </c>
       <c r="N21">
-        <v>1.038733536232481</v>
+        <v>1.014181082336566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029962788401241</v>
+        <v>0.9788973510884037</v>
       </c>
       <c r="D22">
-        <v>1.038013310267042</v>
+        <v>0.9964470398316316</v>
       </c>
       <c r="E22">
-        <v>1.029828500771716</v>
+        <v>0.9899316257647697</v>
       </c>
       <c r="F22">
-        <v>1.046046237147549</v>
+        <v>1.000588651100654</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033904957208665</v>
+        <v>1.039871122417441</v>
       </c>
       <c r="J22">
-        <v>1.036837977624305</v>
+        <v>1.010592538590638</v>
       </c>
       <c r="K22">
-        <v>1.041714664876495</v>
+        <v>1.01208921167552</v>
       </c>
       <c r="L22">
-        <v>1.033561629853286</v>
+        <v>1.005705213014483</v>
       </c>
       <c r="M22">
-        <v>1.049716942904658</v>
+        <v>1.016148455710394</v>
       </c>
       <c r="N22">
-        <v>1.03831040647951</v>
+        <v>1.012027695912021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03031954280687</v>
+        <v>0.9808123683821222</v>
       </c>
       <c r="D23">
-        <v>1.038331771522642</v>
+        <v>0.998037751386058</v>
       </c>
       <c r="E23">
-        <v>1.030130392750985</v>
+        <v>0.9914336158335953</v>
       </c>
       <c r="F23">
-        <v>1.046399850937642</v>
+        <v>1.002347086689364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033957156489127</v>
+        <v>1.040295934644864</v>
       </c>
       <c r="J23">
-        <v>1.037061979992598</v>
+        <v>1.011737369124756</v>
       </c>
       <c r="K23">
-        <v>1.041963789526242</v>
+        <v>1.013334465891465</v>
       </c>
       <c r="L23">
-        <v>1.033793603518763</v>
+        <v>1.006859910130866</v>
       </c>
       <c r="M23">
-        <v>1.050001711242904</v>
+        <v>1.017560453176475</v>
       </c>
       <c r="N23">
-        <v>1.038534726956859</v>
+        <v>1.013174152236812</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031725158139201</v>
+        <v>0.988177396302675</v>
       </c>
       <c r="D24">
-        <v>1.039587252850301</v>
+        <v>1.004171860908982</v>
       </c>
       <c r="E24">
-        <v>1.031320735792135</v>
+        <v>0.997228299765088</v>
       </c>
       <c r="F24">
-        <v>1.047793942460637</v>
+        <v>1.009126833819816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034159718187097</v>
+        <v>1.041907832375358</v>
       </c>
       <c r="J24">
-        <v>1.037943598639196</v>
+        <v>1.016138267855111</v>
       </c>
       <c r="K24">
-        <v>1.042944843527635</v>
+        <v>1.018126107957329</v>
       </c>
       <c r="L24">
-        <v>1.034707207918283</v>
+        <v>1.011304265031642</v>
       </c>
       <c r="M24">
-        <v>1.051123356490843</v>
+        <v>1.022995545593233</v>
       </c>
       <c r="N24">
-        <v>1.039417597603058</v>
+        <v>1.017581300748153</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033358553553026</v>
+        <v>0.9963904452115361</v>
       </c>
       <c r="D25">
-        <v>1.041047700371609</v>
+        <v>1.011043264746602</v>
       </c>
       <c r="E25">
-        <v>1.032705786533502</v>
+        <v>1.003724696537632</v>
       </c>
       <c r="F25">
-        <v>1.0494156898373</v>
+        <v>1.016719491394924</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034388666996105</v>
+        <v>1.043658736155883</v>
       </c>
       <c r="J25">
-        <v>1.038966097632703</v>
+        <v>1.02103989889534</v>
       </c>
       <c r="K25">
-        <v>1.044083828439635</v>
+        <v>1.023472533379976</v>
       </c>
       <c r="L25">
-        <v>1.035768071907712</v>
+        <v>1.016265465256273</v>
       </c>
       <c r="M25">
-        <v>1.052426034824406</v>
+        <v>1.029063686968199</v>
       </c>
       <c r="N25">
-        <v>1.040441548662419</v>
+        <v>1.022489892666685</v>
       </c>
     </row>
   </sheetData>
